--- a/codes_tests/data/piezos/pz_hydriad.xlsx
+++ b/codes_tests/data/piezos/pz_hydriad.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emmal\Documents\GitHub\TM_Ludovic_Schorpp\codes_tests\data\piezos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{9E3B3FC7-19E8-4CFC-BD9D-1720046608C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B66BEF1-60F1-4BD2-9719-835E40C02D04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pliocene" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -115,6 +115,1142 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>fleuves!$A$2:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>681517.72699101001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>681708.49949187995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>681981.03163598001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>682253.56378007994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>682444.33628095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>682771.37485387002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>683180.17307002004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>683398.19878530002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>683752.49057262996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>683997.76950231998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>684188.54200319003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>684379.31450404995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>684706.35307696997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>685115.15129312</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>685251.41736516997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>685360.43022281001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>685605.70915250003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>685823.73486778</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>686123.52022628998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>686368.79915598</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>686804.85058653995</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>687159.14237387001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>687322.66166033002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>687513.43416119996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>687458.92773237999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>687595.19380442996</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>687704.20666207001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>687894.97916294006</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>688140.25809262996</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>688303.77737908997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>688385.53702231997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>688385.53702231997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>688385.53702231997</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>688412.79023673001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>688467.29666554998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>688549.05630877998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>688685.32238082995</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>688903.34809611004</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>689066.86738257005</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>689284.89309785003</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>689393.90595548996</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>689557.42524194997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>fleuves!$B$2:$B$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>6165516.9121067002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6165380.6460346002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6165162.6203194</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6165380.6460346002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6165244.3799625998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6165080.8606760995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6165080.8606760995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6165080.8606760995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6165080.8606760995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6165271.6331770001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6165271.6331770001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6165298.8863914004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6165271.6331770001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6165326.1396057997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6165680.4313931996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6165843.9506796002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6166116.4828236997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6166307.2553246003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6166307.2553246003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6166334.5085389996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6166416.2681822004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6166307.2553246003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6166170.9892525002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6166552.5342543004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6166797.8131839996</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6167015.8388991999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6167233.8646144997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6167152.1049712999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6167124.8517568996</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6167152.1049712999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6167397.383901</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6167669.9160451004</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6167806.1821170999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6168187.7271189</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6168378.4996197</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6168514.7656918</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6168678.2849783003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6168923.5639078999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6169032.5767655997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6169305.1089097001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6169550.3878394002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6169795.6667691004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F272-4439-9CAD-7A8360600E76}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="508845224"/>
+        <c:axId val="508851784"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="508845224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="508851784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="508851784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="508845224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{601DE62B-4488-4FC3-8AC1-317E9628869B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -413,10 +1549,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
@@ -1995,16 +3131,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -3104,7 +4241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5631,11 +6768,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6819,5 +7956,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/codes_tests/data/piezos/pz_hydriad.xlsx
+++ b/codes_tests/data/piezos/pz_hydriad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emmal\Documents\GitHub\TM_Ludovic_Schorpp\codes_tests\data\piezos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B66BEF1-60F1-4BD2-9719-835E40C02D04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D215A0ED-85AB-4F33-8C28-8437B0C19D2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="6465" yWindow="4215" windowWidth="21555" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pliocene" sheetId="1" r:id="rId1"/>
@@ -44,16 +44,16 @@
     <t>NP_Aout2012</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>NP</t>
   </si>
   <si>
     <t>NP_Avril2013</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -1552,8 +1552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D104" sqref="D104"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1565,10 +1565,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3135,7 +3135,7 @@
   <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3146,16 +3146,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4242,10 +4242,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C228"/>
+  <dimension ref="A1:D228"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4253,18 +4253,18 @@
     <col min="1" max="1" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>703063.04131600005</v>
       </c>
@@ -4274,8 +4274,11 @@
       <c r="C2">
         <v>0.60700842596712989</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>689293</v>
       </c>
@@ -4285,8 +4288,11 @@
       <c r="C3">
         <v>17.319888092337802</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>20.92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>686406</v>
       </c>
@@ -4296,8 +4302,11 @@
       <c r="C4">
         <v>25.916539414098096</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>23.54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>689382</v>
       </c>
@@ -4307,8 +4316,11 @@
       <c r="C5">
         <v>18.740493009992399</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>15.47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>687655</v>
       </c>
@@ -4318,8 +4330,11 @@
       <c r="C6">
         <v>25.798077683083001</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>689302</v>
       </c>
@@ -4329,8 +4344,11 @@
       <c r="C7">
         <v>19.687791474607899</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>17.329999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>669116</v>
       </c>
@@ -4340,8 +4358,11 @@
       <c r="C8">
         <v>140.079360192602</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>136.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>675013</v>
       </c>
@@ -4351,8 +4372,11 @@
       <c r="C9">
         <v>96.122147272270894</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>96.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>676900</v>
       </c>
@@ -4362,8 +4386,11 @@
       <c r="C10">
         <v>85.809608766507594</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>85.61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>679684</v>
       </c>
@@ -4373,8 +4400,11 @@
       <c r="C11">
         <v>74.739179951518906</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>79.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>682289</v>
       </c>
@@ -4384,8 +4414,11 @@
       <c r="C12">
         <v>59.909147397477497</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>61.37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>679286</v>
       </c>
@@ -4395,8 +4428,11 @@
       <c r="C13">
         <v>95.265061048113012</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>91.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>681736</v>
       </c>
@@ -4406,8 +4442,11 @@
       <c r="C14">
         <v>63.568034158155399</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>681721</v>
       </c>
@@ -4417,8 +4456,11 @@
       <c r="C15">
         <v>64.775780345873301</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>64.599999999999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>681525</v>
       </c>
@@ -4428,8 +4470,11 @@
       <c r="C16">
         <v>76.514083082365602</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>680214</v>
       </c>
@@ -4439,8 +4484,11 @@
       <c r="C17">
         <v>70.218810559102494</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>679705</v>
       </c>
@@ -4450,8 +4498,11 @@
       <c r="C18">
         <v>72.992291432626104</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>677590</v>
       </c>
@@ -4461,8 +4512,11 @@
       <c r="C19">
         <v>84.271705201034905</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>676874</v>
       </c>
@@ -4472,8 +4526,11 @@
       <c r="C20">
         <v>105.60609192159001</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>101.28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>677137</v>
       </c>
@@ -4483,8 +4540,11 @@
       <c r="C21">
         <v>92.944514438908996</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>93.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>687181</v>
       </c>
@@ -4494,8 +4554,11 @@
       <c r="C22">
         <v>39.737477932625808</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>40.950000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>683173</v>
       </c>
@@ -4505,8 +4568,11 @@
       <c r="C23">
         <v>58.699421768616098</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>58.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>688366</v>
       </c>
@@ -4516,8 +4582,11 @@
       <c r="C24">
         <v>37.961162290647799</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>45.72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>685256</v>
       </c>
@@ -4527,8 +4596,11 @@
       <c r="C25">
         <v>54.082583964516601</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>51.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>685662</v>
       </c>
@@ -4538,8 +4610,11 @@
       <c r="C26">
         <v>46.018685143981699</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>687261</v>
       </c>
@@ -4549,8 +4624,11 @@
       <c r="C27">
         <v>42.993061448601502</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>46.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>687360</v>
       </c>
@@ -4560,8 +4638,11 @@
       <c r="C28">
         <v>39.807236282777303</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>41.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>686296</v>
       </c>
@@ -4571,8 +4652,11 @@
       <c r="C29">
         <v>52.901460323905603</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>684073</v>
       </c>
@@ -4582,8 +4666,11 @@
       <c r="C30">
         <v>59.311640315562499</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>57.51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>686235</v>
       </c>
@@ -4593,8 +4680,11 @@
       <c r="C31">
         <v>42.578421747013103</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>42.78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>682640</v>
       </c>
@@ -4604,8 +4694,11 @@
       <c r="C32">
         <v>57.061463115575101</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>687993</v>
       </c>
@@ -4615,8 +4708,11 @@
       <c r="C33">
         <v>39.469923207052005</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>40.200000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>687008</v>
       </c>
@@ -4626,8 +4722,11 @@
       <c r="C34">
         <v>46.873754967053202</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>47.15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>684325</v>
       </c>
@@ -4637,8 +4736,11 @@
       <c r="C35">
         <v>52.971378725228703</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>687786</v>
       </c>
@@ -4648,8 +4750,11 @@
       <c r="C36">
         <v>37.759112833671693</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>39.909999999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>688617</v>
       </c>
@@ -4659,8 +4764,11 @@
       <c r="C37">
         <v>35.679708159673595</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>32.979999999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>687582</v>
       </c>
@@ -4670,8 +4778,11 @@
       <c r="C38">
         <v>37.999910780449198</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>686499</v>
       </c>
@@ -4681,8 +4792,11 @@
       <c r="C39">
         <v>53.131870998356398</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>686419</v>
       </c>
@@ -4692,8 +4806,11 @@
       <c r="C40">
         <v>53.204932859824702</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>52.9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>686448</v>
       </c>
@@ -4703,8 +4820,11 @@
       <c r="C41">
         <v>50.160927967999399</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>686716</v>
       </c>
@@ -4714,8 +4834,11 @@
       <c r="C42">
         <v>41.075171264500597</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>687299</v>
       </c>
@@ -4725,8 +4848,11 @@
       <c r="C43">
         <v>36.839123418122995</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>37.880000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>689024</v>
       </c>
@@ -4736,8 +4862,11 @@
       <c r="C44">
         <v>31.908018285554899</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>30.29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>686587</v>
       </c>
@@ -4747,8 +4876,11 @@
       <c r="C45">
         <v>58.343461791591295</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>57.05</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>686746</v>
       </c>
@@ -4758,8 +4890,11 @@
       <c r="C46">
         <v>46.422375892831298</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>48.43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>684609</v>
       </c>
@@ -4769,8 +4904,11 @@
       <c r="C47">
         <v>50.721170251347303</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>687007</v>
       </c>
@@ -4780,8 +4918,11 @@
       <c r="C48">
         <v>39.485480569904801</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>689694</v>
       </c>
@@ -4791,8 +4932,11 @@
       <c r="C49">
         <v>34.853766836207697</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>34.76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>685836</v>
       </c>
@@ -4802,8 +4946,11 @@
       <c r="C50">
         <v>43.270048543495101</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>696123</v>
       </c>
@@ -4813,8 +4960,11 @@
       <c r="C51">
         <v>7.5228265040798101</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>7.46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>692346</v>
       </c>
@@ -4824,8 +4974,11 @@
       <c r="C52">
         <v>10.931500479181501</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>10.37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>690407</v>
       </c>
@@ -4835,8 +4988,11 @@
       <c r="C53">
         <v>16.500553473244199</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>690957</v>
       </c>
@@ -4846,8 +5002,11 @@
       <c r="C54">
         <v>13.669137294014801</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>12.67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>694858</v>
       </c>
@@ -4857,8 +5016,11 @@
       <c r="C55">
         <v>5.6155564029555993</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>693993</v>
       </c>
@@ -4868,8 +5030,11 @@
       <c r="C56">
         <v>7.835734387480219</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <v>6.69</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>690067</v>
       </c>
@@ -4879,8 +5044,11 @@
       <c r="C57">
         <v>18.974977382422402</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>690823</v>
       </c>
@@ -4890,8 +5058,11 @@
       <c r="C58">
         <v>21.161605358561303</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <v>20.43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>696650</v>
       </c>
@@ -4901,8 +5072,11 @@
       <c r="C59">
         <v>1.4874375864063198</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>696580</v>
       </c>
@@ -4912,8 +5086,11 @@
       <c r="C60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>694553</v>
       </c>
@@ -4923,8 +5100,11 @@
       <c r="C61">
         <v>2.4053696216863298</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>693541</v>
       </c>
@@ -4934,8 +5114,11 @@
       <c r="C62">
         <v>6.5727692859470999</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <v>8.08</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>696960</v>
       </c>
@@ -4945,8 +5128,11 @@
       <c r="C63">
         <v>1.86985011202683</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>696980</v>
       </c>
@@ -4956,8 +5142,11 @@
       <c r="C64">
         <v>5.2999258931305695</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>691270.56394000002</v>
       </c>
@@ -4967,8 +5156,11 @@
       <c r="C65">
         <v>15.4972006003334</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>691821.14650000003</v>
       </c>
@@ -4978,8 +5170,11 @@
       <c r="C66">
         <v>14.1825217586658</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <v>12.68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>695695.24560400005</v>
       </c>
@@ -4989,8 +5184,11 @@
       <c r="C67">
         <v>5.0821133622378607</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>697455</v>
       </c>
@@ -5000,8 +5198,11 @@
       <c r="C68">
         <v>2.9462228846749401</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>699630</v>
       </c>
@@ -5011,8 +5212,11 @@
       <c r="C69">
         <v>2.2988574566277897</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>703243.23197199998</v>
       </c>
@@ -5022,8 +5226,11 @@
       <c r="C70">
         <v>2.0840938702429601</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>702559</v>
       </c>
@@ -5033,8 +5240,11 @@
       <c r="C71">
         <v>1.609994903766423</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>703017</v>
       </c>
@@ -5044,8 +5254,11 @@
       <c r="C72">
         <v>0.66775069288827971</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>699634</v>
       </c>
@@ -5055,8 +5268,11 @@
       <c r="C73">
         <v>-0.36156322483981018</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73">
+        <v>-0.36</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>702111</v>
       </c>
@@ -5066,8 +5282,11 @@
       <c r="C74">
         <v>1.2200000001914699</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>702922</v>
       </c>
@@ -5077,8 +5296,11 @@
       <c r="C75">
         <v>-3.7424964680199402E-3</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>699133</v>
       </c>
@@ -5088,8 +5310,11 @@
       <c r="C76">
         <v>-0.24968730310239007</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>699138</v>
       </c>
@@ -5099,8 +5324,11 @@
       <c r="C77">
         <v>0.95037971544871991</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>699604</v>
       </c>
@@ -5110,8 +5338,11 @@
       <c r="C78">
         <v>1.35951334874389</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>700129</v>
       </c>
@@ -5121,8 +5352,11 @@
       <c r="C79">
         <v>3.2804659817489696</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>700103</v>
       </c>
@@ -5132,8 +5366,11 @@
       <c r="C80">
         <v>1.4545496907942399</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>701609</v>
       </c>
@@ -5143,8 +5380,11 @@
       <c r="C81">
         <v>-0.12824102262114709</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>703198</v>
       </c>
@@ -5154,8 +5394,11 @@
       <c r="C82">
         <v>1.4993563941407602</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>700665</v>
       </c>
@@ -5165,8 +5408,11 @@
       <c r="C83">
         <v>2.70000000009576</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>701463</v>
       </c>
@@ -5176,8 +5422,11 @@
       <c r="C84">
         <v>2.23460195100657</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>701897</v>
       </c>
@@ -5187,8 +5436,11 @@
       <c r="C85">
         <v>-0.36201938141042</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>703192</v>
       </c>
@@ -5198,8 +5450,11 @@
       <c r="C86">
         <v>0.43398433439695994</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>698642</v>
       </c>
@@ -5209,8 +5464,11 @@
       <c r="C87">
         <v>1.8463182668142197</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>701936</v>
       </c>
@@ -5220,8 +5478,11 @@
       <c r="C88">
         <v>0.87035579293488996</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>702064</v>
       </c>
@@ -5231,8 +5492,11 @@
       <c r="C89">
         <v>1.49303235886757</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>701937</v>
       </c>
@@ -5242,8 +5506,11 @@
       <c r="C90">
         <v>1.2598361644598299</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>699765</v>
       </c>
@@ -5253,8 +5520,11 @@
       <c r="C91">
         <v>3.0311880643428406</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>697813</v>
       </c>
@@ -5264,8 +5534,11 @@
       <c r="C92">
         <v>0.81779256248929011</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>702482.42697999999</v>
       </c>
@@ -5275,8 +5548,11 @@
       <c r="C93">
         <v>1.5919762613165802</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>702417</v>
       </c>
@@ -5286,8 +5562,11 @@
       <c r="C94">
         <v>0.19404405711782799</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>702506</v>
       </c>
@@ -5297,8 +5576,11 @@
       <c r="C95">
         <v>2.2379604470257002</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>700194</v>
       </c>
@@ -5308,8 +5590,11 @@
       <c r="C96">
         <v>-1.17</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>700210.022596</v>
       </c>
@@ -5319,8 +5604,11 @@
       <c r="C97">
         <v>-1.1499999999999999</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>697808</v>
       </c>
@@ -5330,8 +5618,11 @@
       <c r="C98">
         <v>1.9962410809255999</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98">
+        <v>3.31</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>701812</v>
       </c>
@@ -5341,8 +5632,11 @@
       <c r="C99">
         <v>2.8133129296294599</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>703111</v>
       </c>
@@ -5352,8 +5646,11 @@
       <c r="C100">
         <v>0.53195727356858002</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>703108</v>
       </c>
@@ -5363,8 +5660,11 @@
       <c r="C101">
         <v>-0.34274829191419975</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>702575</v>
       </c>
@@ -5374,8 +5674,11 @@
       <c r="C102">
         <v>0.60000072035061003</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>700746</v>
       </c>
@@ -5385,8 +5688,11 @@
       <c r="C103">
         <v>1.23987042482427</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>695111</v>
       </c>
@@ -5396,8 +5702,11 @@
       <c r="C104">
         <v>14.9664663928463</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104">
+        <v>13.65</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>695638</v>
       </c>
@@ -5407,8 +5716,11 @@
       <c r="C105">
         <v>10.558850734930999</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>693428</v>
       </c>
@@ -5418,8 +5730,11 @@
       <c r="C106">
         <v>14.0266433891037</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>692142</v>
       </c>
@@ -5429,8 +5744,11 @@
       <c r="C107">
         <v>18.8793467166075</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107">
+        <v>16.11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>690282</v>
       </c>
@@ -5440,8 +5758,11 @@
       <c r="C108">
         <v>29.598152122144</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108">
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>691967</v>
       </c>
@@ -5451,8 +5772,11 @@
       <c r="C109">
         <v>12.108630554625801</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>695170</v>
       </c>
@@ -5462,8 +5786,11 @@
       <c r="C110">
         <v>17.398342661127202</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>693994</v>
       </c>
@@ -5473,8 +5800,11 @@
       <c r="C111">
         <v>18.232941147507798</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D111">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>694240</v>
       </c>
@@ -5484,8 +5814,11 @@
       <c r="C112">
         <v>14.067914298277799</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>693562</v>
       </c>
@@ -5495,8 +5828,11 @@
       <c r="C113">
         <v>16.268152447967104</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>695459</v>
       </c>
@@ -5506,8 +5842,11 @@
       <c r="C114">
         <v>10.526690391361896</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>693352</v>
       </c>
@@ -5517,8 +5856,11 @@
       <c r="C115">
         <v>18.139965142544899</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115">
+        <v>17.37</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>692380</v>
       </c>
@@ -5528,8 +5870,11 @@
       <c r="C116">
         <v>19.246942370581102</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116">
+        <v>18.350000000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>691780</v>
       </c>
@@ -5539,8 +5884,11 @@
       <c r="C117">
         <v>19.991187010878402</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>694016</v>
       </c>
@@ -5550,8 +5898,11 @@
       <c r="C118">
         <v>15.353119358095601</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118">
+        <v>15.51</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>695175</v>
       </c>
@@ -5561,8 +5912,11 @@
       <c r="C119">
         <v>12.039751381428502</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>691178</v>
       </c>
@@ -5572,8 +5926,11 @@
       <c r="C120">
         <v>13.000991529893499</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D120">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>690736</v>
       </c>
@@ -5583,8 +5940,11 @@
       <c r="C121">
         <v>14.943678447349797</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D121">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>690582</v>
       </c>
@@ -5594,8 +5954,11 @@
       <c r="C122">
         <v>34.090999263734602</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D122">
+        <v>29.6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>694906</v>
       </c>
@@ -5605,8 +5968,11 @@
       <c r="C123">
         <v>2.097051283645099</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D123">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>694895</v>
       </c>
@@ -5616,8 +5982,11 @@
       <c r="C124">
         <v>11.496987095419801</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D124">
+        <v>11.62</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>692057</v>
       </c>
@@ -5627,8 +5996,11 @@
       <c r="C125">
         <v>39.903400683369604</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D125">
+        <v>19.13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>694107</v>
       </c>
@@ -5638,8 +6010,11 @@
       <c r="C126">
         <v>10.2800074174468</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D126">
+        <v>9.7799999999999994</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>690754</v>
       </c>
@@ -5649,8 +6024,11 @@
       <c r="C127">
         <v>22.689536503450498</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D127">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>694450</v>
       </c>
@@ -5660,8 +6038,11 @@
       <c r="C128">
         <v>12.787202891005304</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D128">
+        <v>13.05</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>690793</v>
       </c>
@@ -5671,8 +6052,11 @@
       <c r="C129">
         <v>35.136553720219503</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D129">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>696451</v>
       </c>
@@ -5682,8 +6066,11 @@
       <c r="C130">
         <v>13.450716038711599</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D130">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>692480</v>
       </c>
@@ -5693,8 +6080,11 @@
       <c r="C131">
         <v>16.076728949277197</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D131">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>694758</v>
       </c>
@@ -5704,8 +6094,11 @@
       <c r="C132">
         <v>11.504357461635003</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D132">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>692720.03689900006</v>
       </c>
@@ -5715,8 +6108,11 @@
       <c r="C133">
         <v>20.784747303634902</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D133">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>700250</v>
       </c>
@@ -5726,8 +6122,11 @@
       <c r="C134">
         <v>2.1868213544552306</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D134">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>700201</v>
       </c>
@@ -5737,8 +6136,11 @@
       <c r="C135">
         <v>3.1283436406352694</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D135">
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>698817</v>
       </c>
@@ -5748,8 +6150,11 @@
       <c r="C136">
         <v>4.5999191493931395</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D136">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>701911</v>
       </c>
@@ -5759,8 +6164,11 @@
       <c r="C137">
         <v>3.8530329108874999</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D137">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>698979</v>
       </c>
@@ -5770,8 +6178,11 @@
       <c r="C138">
         <v>0.67549032685710997</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D138">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>700869</v>
       </c>
@@ -5781,8 +6192,11 @@
       <c r="C139">
         <v>2.86215704916104</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D139">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>700219</v>
       </c>
@@ -5792,8 +6206,11 @@
       <c r="C140">
         <v>5.9194417182844994</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D140">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>700631</v>
       </c>
@@ -5803,8 +6220,11 @@
       <c r="C141">
         <v>3.0599913254646598</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D141">
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>698298</v>
       </c>
@@ -5814,8 +6234,11 @@
       <c r="C142">
         <v>6.7364606247146988</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D142">
+        <v>5.92</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>697910</v>
       </c>
@@ -5825,8 +6248,11 @@
       <c r="C143">
         <v>6.2580536334941996</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D143">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>699649</v>
       </c>
@@ -5836,8 +6262,11 @@
       <c r="C144">
         <v>3.3245893516009799</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D144">
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>697583</v>
       </c>
@@ -5847,8 +6276,11 @@
       <c r="C145">
         <v>18.568940229010899</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D145">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>698955</v>
       </c>
@@ -5858,8 +6290,11 @@
       <c r="C146">
         <v>0.76397362312059003</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D146">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>702058</v>
       </c>
@@ -5869,8 +6304,11 @@
       <c r="C147">
         <v>1.9447676693446501</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D147">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>702061</v>
       </c>
@@ -5880,8 +6318,11 @@
       <c r="C148">
         <v>1.98311731267705</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D148">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>702502</v>
       </c>
@@ -5891,8 +6332,11 @@
       <c r="C149">
         <v>0.98938417838787984</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D149">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>701437</v>
       </c>
@@ -5902,8 +6346,11 @@
       <c r="C150">
         <v>3.4982903562743499</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D150">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>701911</v>
       </c>
@@ -5913,8 +6360,11 @@
       <c r="C151">
         <v>1.7962163878006798</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D151">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>699942</v>
       </c>
@@ -5924,8 +6374,11 @@
       <c r="C152">
         <v>3.8355002026409002</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D152">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>703113</v>
       </c>
@@ -5935,8 +6388,11 @@
       <c r="C153">
         <v>1.7610016041760201</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D153">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>697831</v>
       </c>
@@ -5946,8 +6402,11 @@
       <c r="C154">
         <v>7.3102880033152005</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D154">
+        <v>6.81</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>697435</v>
       </c>
@@ -5957,8 +6416,11 @@
       <c r="C155">
         <v>7.9715123838532023</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D155">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>699619</v>
       </c>
@@ -5968,8 +6430,11 @@
       <c r="C156">
         <v>4.9561127810274996</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D156">
+        <v>4.7300000000000004</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>702057</v>
       </c>
@@ -5979,8 +6444,11 @@
       <c r="C157">
         <v>2.1896313529416895</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D157">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>700295</v>
       </c>
@@ -5990,8 +6458,11 @@
       <c r="C158">
         <v>2.8309247567187397</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D158">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>681325</v>
       </c>
@@ -6001,8 +6472,11 @@
       <c r="C159">
         <v>98.895272108436004</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D159">
+        <v>118.9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>679987</v>
       </c>
@@ -6012,8 +6486,11 @@
       <c r="C160">
         <v>97.632147812895397</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D160">
+        <v>88.3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>681051</v>
       </c>
@@ -6023,8 +6500,11 @@
       <c r="C161">
         <v>122.21582311233598</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D161">
+        <v>122.32</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>680991</v>
       </c>
@@ -6034,8 +6514,11 @@
       <c r="C162">
         <v>106.54250246303801</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D162">
+        <v>99.62</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>679303</v>
       </c>
@@ -6045,8 +6528,11 @@
       <c r="C163">
         <v>86.204373598394994</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D163">
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>682351</v>
       </c>
@@ -6056,8 +6542,11 @@
       <c r="C164">
         <v>115.712992408799</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D164">
+        <v>114.1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>681297</v>
       </c>
@@ -6067,8 +6556,11 @@
       <c r="C165">
         <v>127.84593496384001</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D165">
+        <v>119.8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>679080</v>
       </c>
@@ -6078,8 +6570,11 @@
       <c r="C166">
         <v>101.356232017953</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D166">
+        <v>95.95</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>677423</v>
       </c>
@@ -6089,8 +6584,11 @@
       <c r="C167">
         <v>106.52383896282301</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D167">
+        <v>100.2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>680409</v>
       </c>
@@ -6100,8 +6598,11 @@
       <c r="C168">
         <v>96.117031513140006</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D168">
+        <v>89.9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>686165</v>
       </c>
@@ -6111,8 +6612,11 @@
       <c r="C169">
         <v>62.541007477236597</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D169">
+        <v>75.319999999999993</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>683236</v>
       </c>
@@ -6122,8 +6626,11 @@
       <c r="C170">
         <v>81.989301039514999</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D170">
+        <v>81.400000000000006</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>684430</v>
       </c>
@@ -6133,8 +6640,11 @@
       <c r="C171">
         <v>111.87320423959</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D171">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>684940</v>
       </c>
@@ -6144,8 +6654,11 @@
       <c r="C172">
         <v>70.293198904340102</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D172">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>687775</v>
       </c>
@@ -6155,8 +6668,11 @@
       <c r="C173">
         <v>46.5412814346423</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D173">
+        <v>54.26</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>685680</v>
       </c>
@@ -6166,8 +6682,11 @@
       <c r="C174">
         <v>64.348589893606501</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D174">
+        <v>64.47</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>686483</v>
       </c>
@@ -6177,8 +6696,11 @@
       <c r="C175">
         <v>59.6355011155323</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D175">
+        <v>60.07</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>687192</v>
       </c>
@@ -6188,8 +6710,11 @@
       <c r="C176">
         <v>56.955950770582497</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D176">
+        <v>55.65</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>686483</v>
       </c>
@@ -6199,8 +6724,11 @@
       <c r="C177">
         <v>63.533645365000197</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D177">
+        <v>63.05</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>683582.42928399995</v>
       </c>
@@ -6210,8 +6738,11 @@
       <c r="C178">
         <v>80.712979513402004</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D178">
+        <v>80.73</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>690648</v>
       </c>
@@ -6221,8 +6752,11 @@
       <c r="C179">
         <v>22.788814915394699</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D179">
+        <v>21.33</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>691817</v>
       </c>
@@ -6232,8 +6766,11 @@
       <c r="C180">
         <v>18.663079417234702</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D180">
+        <v>14.85</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>694548</v>
       </c>
@@ -6243,8 +6780,11 @@
       <c r="C181">
         <v>18.978164808591099</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D181">
+        <v>17.48</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>695849</v>
       </c>
@@ -6254,8 +6794,11 @@
       <c r="C182">
         <v>4.4093626489585986</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D182">
+        <v>11.94</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>695076</v>
       </c>
@@ -6265,8 +6808,11 @@
       <c r="C183">
         <v>2.63661926139185</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D183">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>695270</v>
       </c>
@@ -6276,8 +6822,11 @@
       <c r="C184">
         <v>10.063763610173599</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D184">
+        <v>9.51</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>693780</v>
       </c>
@@ -6287,8 +6836,11 @@
       <c r="C185">
         <v>16.408797147304501</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D185">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>694072</v>
       </c>
@@ -6298,8 +6850,11 @@
       <c r="C186">
         <v>2.5070797041862996</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D186">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>694239</v>
       </c>
@@ -6309,8 +6864,11 @@
       <c r="C187">
         <v>1.8325386261882395</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D187">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>690153</v>
       </c>
@@ -6320,8 +6878,11 @@
       <c r="C188">
         <v>26.2257378401431</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D188">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>692814</v>
       </c>
@@ -6331,8 +6892,11 @@
       <c r="C189">
         <v>23.149661270627796</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D189">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>695267</v>
       </c>
@@ -6342,8 +6906,11 @@
       <c r="C190">
         <v>15.001327778110898</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D190">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>696576.1777</v>
       </c>
@@ -6353,8 +6920,11 @@
       <c r="C191">
         <v>14.9750004554628</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D191">
+        <v>12.24</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>695370</v>
       </c>
@@ -6364,8 +6934,11 @@
       <c r="C192">
         <v>12.147538924261401</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D192">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>694549</v>
       </c>
@@ -6375,8 +6948,11 @@
       <c r="C193">
         <v>6.017995122751099</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D193">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>693830</v>
       </c>
@@ -6386,8 +6962,11 @@
       <c r="C194">
         <v>9.3612850168594992</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D194">
+        <v>9.06</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>693433</v>
       </c>
@@ -6397,8 +6976,11 @@
       <c r="C195">
         <v>13.898000223495599</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D195">
+        <v>11.85</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>692820</v>
       </c>
@@ -6408,8 +6990,11 @@
       <c r="C196">
         <v>10.812599744722501</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D196">
+        <v>14.43</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>692984</v>
       </c>
@@ -6419,8 +7004,11 @@
       <c r="C197">
         <v>10.6197343692084</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D197">
+        <v>13.28</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>694574.05929999996</v>
       </c>
@@ -6430,8 +7018,11 @@
       <c r="C198">
         <v>12.407809938354998</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D198">
+        <v>7.73</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>693723.15897999995</v>
       </c>
@@ -6441,8 +7032,11 @@
       <c r="C199">
         <v>10.9910120570551</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D199">
+        <v>10.77</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>694353.82627600001</v>
       </c>
@@ -6452,8 +7046,11 @@
       <c r="C200">
         <v>8.0602677128748006</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D200">
+        <v>8.5399999999999991</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>694844.34528400004</v>
       </c>
@@ -6463,8 +7060,11 @@
       <c r="C201">
         <v>7.4199999998009396</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D201">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>696342</v>
       </c>
@@ -6474,8 +7074,11 @@
       <c r="C202">
         <v>9.6423867067376996</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D202">
+        <v>9.51</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>693660</v>
       </c>
@@ -6485,8 +7088,11 @@
       <c r="C203">
         <v>12.5676802533723</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D203">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>692150</v>
       </c>
@@ -6496,8 +7102,11 @@
       <c r="C204">
         <v>48.6652837591378</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D204">
+        <v>32.17</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>691818</v>
       </c>
@@ -6507,8 +7116,11 @@
       <c r="C205">
         <v>19.1361510131381</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D205">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>692430</v>
       </c>
@@ -6518,8 +7130,11 @@
       <c r="C206">
         <v>15.3651235477162</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D206">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>695278.06912500004</v>
       </c>
@@ -6529,8 +7144,11 @@
       <c r="C207">
         <v>8.3738610946355987</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D207">
+        <v>24.54</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>692748.36579299998</v>
       </c>
@@ -6540,8 +7158,11 @@
       <c r="C208">
         <v>22.6423058770342</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D208">
+        <v>21.57</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>699558</v>
       </c>
@@ -6551,8 +7172,11 @@
       <c r="C209">
         <v>3.6014496607434601</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D209">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>698910</v>
       </c>
@@ -6562,8 +7186,11 @@
       <c r="C210">
         <v>5.8723058047055998</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D210">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>698256</v>
       </c>
@@ -6573,8 +7200,11 @@
       <c r="C211">
         <v>8.0091416111933995</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D211">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>699531</v>
       </c>
@@ -6584,8 +7214,11 @@
       <c r="C212">
         <v>8.5070400128644597</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D212">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>701573</v>
       </c>
@@ -6595,8 +7228,11 @@
       <c r="C213">
         <v>2.99993298531421</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D213">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>699132</v>
       </c>
@@ -6606,8 +7242,11 @@
       <c r="C214">
         <v>2.8048200509574097</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D214">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>699197</v>
       </c>
@@ -6617,8 +7256,11 @@
       <c r="C215">
         <v>5.2413380942157302</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D215">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>699091</v>
       </c>
@@ -6628,8 +7270,11 @@
       <c r="C216">
         <v>4.2505045748255004</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D216">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>698148</v>
       </c>
@@ -6639,8 +7284,11 @@
       <c r="C217">
         <v>6.8866933583913212</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D217">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>697306.95091600006</v>
       </c>
@@ -6650,8 +7298,11 @@
       <c r="C218">
         <v>9.0960786875824997</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D218">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>699068.81510800007</v>
       </c>
@@ -6661,8 +7312,11 @@
       <c r="C219">
         <v>12.645882396771201</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D219">
+        <v>13.23</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>701055</v>
       </c>
@@ -6672,8 +7326,11 @@
       <c r="C220">
         <v>1.3855343537611402</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D220">
+        <v>2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>698828.56090000004</v>
       </c>
@@ -6683,8 +7340,11 @@
       <c r="C221">
         <v>9.226719805962599</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D221">
+        <v>6.54</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>697954</v>
       </c>
@@ -6694,8 +7354,11 @@
       <c r="C222">
         <v>6.3195459170936985</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D222">
+        <v>6.77</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>701720</v>
       </c>
@@ -6705,8 +7368,11 @@
       <c r="C223">
         <v>2.7557550637920301</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D223">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>699862</v>
       </c>
@@ -6716,8 +7382,11 @@
       <c r="C224">
         <v>5.4388158332754397</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D224">
+        <v>4.5599999999999996</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>694003.455556</v>
       </c>
@@ -6727,8 +7396,11 @@
       <c r="C225">
         <v>26.6763073502478</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D225">
+        <v>27.35</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>700341</v>
       </c>
@@ -6738,8 +7410,11 @@
       <c r="C226">
         <v>23.626736376335099</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D226">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>703093.07309199998</v>
       </c>
@@ -6749,8 +7424,11 @@
       <c r="C227">
         <v>2.4747602140212024</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D227">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>700254</v>
       </c>
@@ -6759,6 +7437,9 @@
       </c>
       <c r="C228">
         <v>24.265544485658801</v>
+      </c>
+      <c r="D228">
+        <v>22.25</v>
       </c>
     </row>
   </sheetData>
@@ -6772,20 +7453,20 @@
   <dimension ref="A1:C107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/codes_tests/data/piezos/pz_hydriad.xlsx
+++ b/codes_tests/data/piezos/pz_hydriad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emmal\Documents\GitHub\TM_Ludovic_Schorpp\codes_tests\data\piezos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A907A8-92A5-405A-8ED4-80A834C37CE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0998ECE8-B85A-4DDD-B8F4-5B8605EB2448}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1635,7 +1635,7 @@
   <dimension ref="A1:E193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E173" sqref="E173"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8767,8 +8767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C6FC19C-82EB-493D-B579-ADDF6C9F1D84}">
   <dimension ref="A1:E973"/>
   <sheetViews>
-    <sheetView topLeftCell="A249" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A233" workbookViewId="0">
+      <selection activeCell="B271" sqref="B271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/codes_tests/data/piezos/pz_hydriad.xlsx
+++ b/codes_tests/data/piezos/pz_hydriad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emmal\Documents\GitHub\TM_Ludovic_Schorpp\codes_tests\data\piezos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0998ECE8-B85A-4DDD-B8F4-5B8605EB2448}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F52F9C6-3F8D-4398-9226-5CE1BBB58C60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1635,7 +1635,7 @@
   <dimension ref="A1:E193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
